--- a/server/sample2.xlsx
+++ b/server/sample2.xlsx
@@ -49,7 +49,7 @@
     <t>Store #:</t>
   </si>
   <si>
-    <t>Store3927</t>
+    <t>2530</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -61,7 +61,7 @@
     <t>33 City Centre Drive, Suite 510</t>
   </si>
   <si>
-    <t>25 Columbia Dr, Unit 32</t>
+    <t>2013 Lawrence Ave W. Unit # 3</t>
   </si>
   <si>
     <t>City:</t>
@@ -70,7 +70,7 @@
     <t>Mississauga, ON</t>
   </si>
   <si>
-    <t>Marystown, NL</t>
+    <t>Toronto</t>
   </si>
   <si>
     <t>Postal Code:</t>
@@ -79,7 +79,7 @@
     <t>L5B 2N5</t>
   </si>
   <si>
-    <t>A0E 2M0</t>
+    <t>(416) 614-9056</t>
   </si>
   <si>
     <t>Telephone:</t>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="38" ht="14.1" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" s="42" t="s">
         <v>44</v>
@@ -2398,7 +2398,9 @@
       <c r="K58" s="92"/>
     </row>
     <row r="59" ht="14.1" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
+      <c r="A59" s="46">
+        <v>1</v>
+      </c>
       <c r="B59" s="42" t="s">
         <v>67</v>
       </c>
@@ -2420,7 +2422,9 @@
       </c>
     </row>
     <row r="60" ht="14.1" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="101"/>
+      <c r="A60" s="101">
+        <v>2</v>
+      </c>
       <c r="B60" s="42" t="s">
         <v>69</v>
       </c>
